--- a/data/trans_orig/P55S_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4DAA12-2D9E-4B56-A544-3E5DA85551EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6316723-C590-48C2-BC6A-C5859D95F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E265346-6656-44BD-9C0E-838392FBD3CE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4CF5D0D6-5995-4195-8AD6-9B7E926D9B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="433">
   <si>
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2007 (Tasa respuesta: 5,34%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Ayuda privada (sola o con familiar)</t>
@@ -86,19 +86,232 @@
     <t>Nadie</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>11,86%</t>
@@ -131,9 +344,6 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,37%</t>
   </si>
   <si>
@@ -209,18 +419,213 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2012 (Tasa respuesta: 5,92%)</t>
   </si>
   <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
     <t>13,03%</t>
   </si>
   <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
     <t>8,16%</t>
   </si>
   <si>
@@ -329,6 +734,201 @@
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2016 (Tasa respuesta: 5,34%)</t>
   </si>
   <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
     <t>9,13%</t>
   </si>
   <si>
@@ -356,9 +956,6 @@
     <t>5,44%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
     <t>10,42%</t>
   </si>
   <si>
@@ -407,9 +1004,6 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
     <t>8,29%</t>
   </si>
   <si>
@@ -431,109 +1025,319 @@
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2023 (Tasa respuesta: 10,61%)</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
 </sst>
 </file>
@@ -945,8 +1749,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3109A-95FA-4C41-A17C-8CC3DCEFC05C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65688159-A88D-4244-A07E-90C290BB3572}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2198,10 +3002,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>15010</v>
+        <v>2730</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
@@ -2213,10 +3017,10 @@
         <v>22</v>
       </c>
       <c r="H29" s="7">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>48218</v>
+        <v>15785</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>23</v>
@@ -2228,10 +3032,10 @@
         <v>25</v>
       </c>
       <c r="M29" s="7">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>63228</v>
+        <v>18515</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>26</v>
@@ -2264,34 +3068,34 @@
         <v>31</v>
       </c>
       <c r="H30" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>10763</v>
+        <v>1864</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>3</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2699</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="7">
-        <v>11</v>
-      </c>
-      <c r="N30" s="7">
-        <v>11598</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +3104,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D31" s="7">
-        <v>104298</v>
+        <v>34680</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>47</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43751</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H31" s="7">
-        <v>145</v>
-      </c>
-      <c r="I31" s="7">
-        <v>156728</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>82</v>
+      </c>
+      <c r="N31" s="7">
+        <v>78430</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="7">
-        <v>255</v>
-      </c>
-      <c r="N31" s="7">
-        <v>261028</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +3155,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>6434</v>
+        <v>3540</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6261</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="7">
-        <v>15</v>
-      </c>
-      <c r="I32" s="7">
-        <v>15212</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>9800</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M32" s="7">
-        <v>21</v>
-      </c>
-      <c r="N32" s="7">
-        <v>21647</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,102 +3206,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7">
-        <v>126578</v>
+        <v>41785</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="I33" s="7">
-        <v>230922</v>
+        <v>67661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>348</v>
+        <v>115</v>
       </c>
       <c r="N33" s="7">
-        <v>357501</v>
+        <v>109445</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" s="7">
-        <v>15010</v>
+        <v>12280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H34" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I34" s="7">
-        <v>48218</v>
+        <v>32433</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M34" s="7">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N34" s="7">
-        <v>63228</v>
+        <v>44713</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +3310,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>836</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="H35" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I35" s="7">
-        <v>10763</v>
+        <v>8899</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M35" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N35" s="7">
-        <v>11598</v>
+        <v>8899</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,49 +3361,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D36" s="7">
-        <v>104298</v>
+        <v>69619</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H36" s="7">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="I36" s="7">
-        <v>156728</v>
+        <v>112978</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="M36" s="7">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="N36" s="7">
-        <v>261028</v>
+        <v>182597</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,49 +3412,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>6434</v>
+        <v>2895</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H37" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>15212</v>
+        <v>8952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="M37" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>21647</v>
+        <v>11847</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,63 +3463,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>91</v>
+      </c>
+      <c r="D38" s="7">
+        <v>84794</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="7">
+        <v>142</v>
+      </c>
+      <c r="I38" s="7">
+        <v>163262</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="7">
+        <v>233</v>
+      </c>
+      <c r="N38" s="7">
+        <v>248056</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7">
+        <v>15010</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="7">
+        <v>45</v>
+      </c>
+      <c r="I39" s="7">
+        <v>48218</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" s="7">
+        <v>61</v>
+      </c>
+      <c r="N39" s="7">
+        <v>63228</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>836</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="7">
+        <v>10</v>
+      </c>
+      <c r="I40" s="7">
+        <v>10763</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="7">
+        <v>11</v>
+      </c>
+      <c r="N40" s="7">
+        <v>11598</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>110</v>
+      </c>
+      <c r="D41" s="7">
+        <v>104298</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="7">
+        <v>145</v>
+      </c>
+      <c r="I41" s="7">
+        <v>156728</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="7">
+        <v>255</v>
+      </c>
+      <c r="N41" s="7">
+        <v>261028</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6434</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="7">
+        <v>15</v>
+      </c>
+      <c r="I42" s="7">
+        <v>15212</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="7">
+        <v>21</v>
+      </c>
+      <c r="N42" s="7">
+        <v>21647</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>133</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>126578</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="7">
         <v>215</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>230922</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="7">
         <v>348</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>357501</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="O43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2728,8 +3790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E81ECB-B6C7-49AC-9B67-EA60C8CF2B1D}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1DFE2-7FFA-4B62-A45E-B86F8BE24EDA}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2745,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,49 +5043,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>19041</v>
+        <v>2098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>42981</v>
+        <v>6679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>62022</v>
+        <v>8777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +5094,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>12843</v>
+        <v>3115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="H30" s="7">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>52794</v>
+        <v>5890</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="M30" s="7">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="N30" s="7">
-        <v>65638</v>
+        <v>9005</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,49 +5145,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D31" s="7">
-        <v>107992</v>
+        <v>37267</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="I31" s="7">
-        <v>177393</v>
+        <v>54206</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="M31" s="7">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="N31" s="7">
-        <v>285385</v>
+        <v>91473</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,49 +5196,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>6292</v>
+        <v>2976</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2942</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" s="7">
         <v>6</v>
       </c>
-      <c r="I32" s="7">
-        <v>6361</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" s="7">
-        <v>11</v>
-      </c>
       <c r="N32" s="7">
-        <v>12653</v>
+        <v>5918</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,102 +5247,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="D33" s="7">
-        <v>146168</v>
+        <v>45456</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="I33" s="7">
-        <v>279530</v>
+        <v>69717</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>385</v>
+        <v>109</v>
       </c>
       <c r="N33" s="7">
-        <v>425698</v>
+        <v>115173</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>19041</v>
+        <v>16943</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="H34" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I34" s="7">
-        <v>42981</v>
+        <v>36302</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="M34" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N34" s="7">
-        <v>62022</v>
+        <v>53245</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,49 +5351,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>12843</v>
+        <v>9728</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="H35" s="7">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I35" s="7">
-        <v>52794</v>
+        <v>46904</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="M35" s="7">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N35" s="7">
-        <v>65638</v>
+        <v>56632</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,49 +5402,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D36" s="7">
-        <v>107992</v>
+        <v>70725</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="I36" s="7">
-        <v>177393</v>
+        <v>123187</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="M36" s="7">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="N36" s="7">
-        <v>285385</v>
+        <v>193912</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,49 +5453,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3316</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="7">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3420</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M37" s="7">
         <v>5</v>
       </c>
-      <c r="D37" s="7">
-        <v>6292</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H37" s="7">
-        <v>6</v>
-      </c>
-      <c r="I37" s="7">
-        <v>6361</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M37" s="7">
-        <v>11</v>
-      </c>
       <c r="N37" s="7">
-        <v>12653</v>
+        <v>6735</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,63 +5504,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>87</v>
+      </c>
+      <c r="D38" s="7">
+        <v>100712</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="7">
+        <v>189</v>
+      </c>
+      <c r="I38" s="7">
+        <v>209813</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="7">
+        <v>276</v>
+      </c>
+      <c r="N38" s="7">
+        <v>310525</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>18</v>
+      </c>
+      <c r="D39" s="7">
+        <v>19041</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="7">
+        <v>37</v>
+      </c>
+      <c r="I39" s="7">
+        <v>42981</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M39" s="7">
+        <v>55</v>
+      </c>
+      <c r="N39" s="7">
+        <v>62022</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7">
+        <v>12843</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="7">
+        <v>49</v>
+      </c>
+      <c r="I40" s="7">
+        <v>52794</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" s="7">
+        <v>61</v>
+      </c>
+      <c r="N40" s="7">
+        <v>65638</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>94</v>
+      </c>
+      <c r="D41" s="7">
+        <v>107992</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="7">
+        <v>164</v>
+      </c>
+      <c r="I41" s="7">
+        <v>177393</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M41" s="7">
+        <v>258</v>
+      </c>
+      <c r="N41" s="7">
+        <v>285385</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>5</v>
+      </c>
+      <c r="D42" s="7">
+        <v>6292</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="7">
+        <v>6</v>
+      </c>
+      <c r="I42" s="7">
+        <v>6361</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M42" s="7">
+        <v>11</v>
+      </c>
+      <c r="N42" s="7">
+        <v>12653</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>129</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>146168</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="7">
         <v>256</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>279530</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="7">
         <v>385</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>425698</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="O43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4511,8 +5831,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A332D2-4500-45E1-8888-8C52AFE7EB63}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60DD708-735B-4C89-8BC8-E7259FE1E07B}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4528,7 +5848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,49 +7084,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>17621</v>
+        <v>1038</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>42470</v>
+        <v>13594</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N29" s="7">
-        <v>60091</v>
+        <v>14632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,49 +7135,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>6603</v>
+        <v>959</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="H30" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>21364</v>
+        <v>2736</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="M30" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>27967</v>
+        <v>3695</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,49 +7186,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D31" s="7">
-        <v>95381</v>
+        <v>28282</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="H31" s="7">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="I31" s="7">
-        <v>181370</v>
+        <v>54417</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="M31" s="7">
+        <v>78</v>
+      </c>
+      <c r="N31" s="7">
+        <v>82698</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="N31" s="7">
-        <v>276751</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="P31" s="7" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,49 +7237,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>1853</v>
+        <v>1059</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>122</v>
+        <v>255</v>
       </c>
       <c r="H32" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I32" s="7">
-        <v>22159</v>
+        <v>11393</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="M32" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N32" s="7">
-        <v>24011</v>
+        <v>12453</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,102 +7288,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D33" s="7">
-        <v>121458</v>
+        <v>31338</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="I33" s="7">
-        <v>267363</v>
+        <v>82140</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="N33" s="7">
-        <v>388821</v>
+        <v>113478</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="7">
-        <v>17621</v>
+        <v>16583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="H34" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I34" s="7">
-        <v>42470</v>
+        <v>28876</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="M34" s="7">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N34" s="7">
-        <v>60091</v>
+        <v>45459</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,49 +7392,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>6603</v>
+        <v>5644</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>104</v>
+        <v>270</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c r="H35" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I35" s="7">
-        <v>21364</v>
+        <v>18628</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="M35" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N35" s="7">
-        <v>27967</v>
+        <v>24272</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,49 +7443,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7">
-        <v>95381</v>
+        <v>67101</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="H36" s="7">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I36" s="7">
-        <v>181370</v>
+        <v>126953</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="M36" s="7">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="N36" s="7">
-        <v>276751</v>
+        <v>194053</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,49 +7494,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>1853</v>
+        <v>794</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="H37" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>22159</v>
+        <v>10765</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="M37" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>24011</v>
+        <v>11559</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,63 +7545,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>105</v>
+      </c>
+      <c r="D38" s="7">
+        <v>90121</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="7">
+        <v>139</v>
+      </c>
+      <c r="I38" s="7">
+        <v>185222</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="7">
+        <v>244</v>
+      </c>
+      <c r="N38" s="7">
+        <v>275343</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>20</v>
+      </c>
+      <c r="D39" s="7">
+        <v>17621</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" s="7">
+        <v>34</v>
+      </c>
+      <c r="I39" s="7">
+        <v>42470</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" s="7">
+        <v>54</v>
+      </c>
+      <c r="N39" s="7">
+        <v>60091</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6603</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H40" s="7">
+        <v>17</v>
+      </c>
+      <c r="I40" s="7">
+        <v>21364</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" s="7">
+        <v>25</v>
+      </c>
+      <c r="N40" s="7">
+        <v>27967</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>106</v>
+      </c>
+      <c r="D41" s="7">
+        <v>95381</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H41" s="7">
+        <v>145</v>
+      </c>
+      <c r="I41" s="7">
+        <v>181370</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M41" s="7">
+        <v>251</v>
+      </c>
+      <c r="N41" s="7">
+        <v>276751</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1853</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="7">
+        <v>19</v>
+      </c>
+      <c r="I42" s="7">
+        <v>22159</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" s="7">
+        <v>21</v>
+      </c>
+      <c r="N42" s="7">
+        <v>24011</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>136</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>121458</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="7">
         <v>215</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>267363</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="7">
         <v>351</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>388821</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="O43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6294,8 +7872,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842990FC-F891-4496-8DE4-C36CAD537CA1}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F556F23-B9ED-4E72-9EE2-076CFE241AEC}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6311,7 +7889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7547,49 +9125,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>21719</v>
+        <v>6856</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="7">
-        <v>54087</v>
+        <v>7833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="M29" s="7">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="N29" s="7">
-        <v>75805</v>
+        <v>14689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,49 +9176,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>32783</v>
+        <v>3971</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>140</v>
+        <v>338</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="H30" s="7">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I30" s="7">
-        <v>90211</v>
+        <v>10229</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="M30" s="7">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="N30" s="7">
-        <v>122995</v>
+        <v>14200</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>147</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,49 +9227,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7">
-        <v>102331</v>
+        <v>35970</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>148</v>
+        <v>345</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="H31" s="7">
-        <v>375</v>
+        <v>104</v>
       </c>
       <c r="I31" s="7">
-        <v>203685</v>
+        <v>51275</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="M31" s="7">
-        <v>534</v>
+        <v>162</v>
       </c>
       <c r="N31" s="7">
-        <v>306016</v>
+        <v>87245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>155</v>
+        <v>352</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>156</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,49 +9278,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>8836</v>
+        <v>3618</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>158</v>
+        <v>355</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="H32" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>16326</v>
+        <v>3694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>359</v>
       </c>
       <c r="M32" s="7">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N32" s="7">
-        <v>25162</v>
+        <v>7313</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,102 +9329,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="D33" s="7">
-        <v>165669</v>
+        <v>50416</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
-        <v>670</v>
+        <v>148</v>
       </c>
       <c r="I33" s="7">
-        <v>364309</v>
+        <v>73031</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
-        <v>928</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>529978</v>
+        <v>123447</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D34" s="7">
-        <v>21719</v>
+        <v>13552</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="H34" s="7">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I34" s="7">
-        <v>54087</v>
+        <v>38886</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="M34" s="7">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="N34" s="7">
-        <v>75805</v>
+        <v>52438</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>138</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,49 +9433,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D35" s="7">
-        <v>32783</v>
+        <v>26935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>139</v>
+        <v>372</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>140</v>
+        <v>373</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>141</v>
+        <v>374</v>
       </c>
       <c r="H35" s="7">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="I35" s="7">
-        <v>90211</v>
+        <v>71858</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="M35" s="7">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="N35" s="7">
-        <v>122995</v>
+        <v>98793</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>145</v>
+        <v>378</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>147</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,49 +9484,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="D36" s="7">
-        <v>102331</v>
+        <v>61390</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>148</v>
+        <v>381</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
       <c r="H36" s="7">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="I36" s="7">
-        <v>203685</v>
+        <v>133442</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
       <c r="M36" s="7">
-        <v>534</v>
+        <v>372</v>
       </c>
       <c r="N36" s="7">
-        <v>306016</v>
+        <v>194831</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>154</v>
+        <v>387</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>155</v>
+        <v>388</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>156</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,49 +9535,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>8836</v>
+        <v>4781</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>158</v>
+        <v>391</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="H37" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I37" s="7">
-        <v>16326</v>
+        <v>11030</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>161</v>
+        <v>394</v>
       </c>
       <c r="M37" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N37" s="7">
-        <v>25162</v>
+        <v>15811</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>162</v>
+        <v>395</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>164</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,63 +9586,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>176</v>
+      </c>
+      <c r="D38" s="7">
+        <v>106657</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="7">
+        <v>522</v>
+      </c>
+      <c r="I38" s="7">
+        <v>255217</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="7">
+        <v>698</v>
+      </c>
+      <c r="N38" s="7">
+        <v>361873</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>34</v>
+      </c>
+      <c r="D39" s="7">
+        <v>20408</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H39" s="7">
+        <v>90</v>
+      </c>
+      <c r="I39" s="7">
+        <v>46719</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M39" s="7">
+        <v>124</v>
+      </c>
+      <c r="N39" s="7">
+        <v>67127</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>51</v>
+      </c>
+      <c r="D40" s="7">
+        <v>30906</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H40" s="7">
+        <v>175</v>
+      </c>
+      <c r="I40" s="7">
+        <v>82087</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M40" s="7">
+        <v>226</v>
+      </c>
+      <c r="N40" s="7">
+        <v>112993</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>159</v>
+      </c>
+      <c r="D41" s="7">
+        <v>97360</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H41" s="7">
+        <v>375</v>
+      </c>
+      <c r="I41" s="7">
+        <v>184717</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="M41" s="7">
+        <v>534</v>
+      </c>
+      <c r="N41" s="7">
+        <v>282077</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7">
+        <v>8399</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H42" s="7">
+        <v>30</v>
+      </c>
+      <c r="I42" s="7">
+        <v>14724</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M42" s="7">
+        <v>44</v>
+      </c>
+      <c r="N42" s="7">
+        <v>23124</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>258</v>
       </c>
-      <c r="D38" s="7">
-        <v>165669</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>157073</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="7">
         <v>670</v>
       </c>
-      <c r="I38" s="7">
-        <v>364309</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>328248</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="7">
         <v>928</v>
       </c>
-      <c r="N38" s="7">
-        <v>529978</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>57</v>
+      <c r="N43" s="7">
+        <v>485321</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
